--- a/biology/Zoologie/Felimare_orsinii/Felimare_orsinii.xlsx
+++ b/biology/Zoologie/Felimare_orsinii/Felimare_orsinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris céleste
 Le doris céleste (Felimare orsinii) est un nudibranche de la famille des Chromodorididés, endémique de la mer Méditerranée.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit nudibranche, d'une taille maximum de 20 millimètres, est d'un bleu profond, de ses rhinophores annelés jusqu'au panache branchial. Une seule ligne blanche parcourt son corps dans le sens de la longueur et une autre ligne, blanche ou jaune, dessine un liseré le long du manteau.
 </t>
@@ -543,9 +557,11 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est endémique de la mer Méditerranée[1], du détroit de Gibraltar à la mer Égée et vit sur des éponges Cacospongia ou sur les posidonies, entre 5 et 40 mètres de profondeur.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est endémique de la mer Méditerranée, du détroit de Gibraltar à la mer Égée et vit sur des éponges Cacospongia ou sur les posidonies, entre 5 et 40 mètres de profondeur.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine de l'épithète spécifique orsinii n’a pas été précisée par l'auteur[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine de l'épithète spécifique orsinii n’a pas été précisée par l'auteur.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Espèces similaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Doris de Villefranche, Felimare villafranca (Risso, 1818)
 Doris de Gascon, Felimare gasconi (Ortea, Valdés &amp; García-Gómez, 1996))
